--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1728458.611795669</v>
+        <v>1726571.030279267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.09547483958396</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>337.1647577214389</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>119.2949683421031</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.3028656524355</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>100.6689360158815</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>101.5798714036944</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4.553842565068913</v>
       </c>
       <c r="V10" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>225.1809026611659</v>
+        <v>24.29718497126864</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274223</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>85.39633870205185</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>166.1848299532897</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>221.9323490168579</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>39.11561436815725</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>178.3201332908088</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>122.5264189150271</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>256.343281175864</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185716</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>76.90718818968202</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>16.50299252505463</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.2873553346313</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>709.5665374816297</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>709.5665374816297</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>709.5665374816297</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1270.889273203046</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>912.6235745962956</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>912.6235745962956</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>501.6376698066881</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.981069572904</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>1883.018552632493</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.752854025742</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.964601427498</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>727.9786966378904</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>310.0148885360773</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4966,37 +4966,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
         <v>281.9325327183818</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,22 +5030,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,28 +5063,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126483</v>
@@ -5124,22 +5124,22 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688073</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805484</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,7 +5300,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.9005583181193</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>441.9005583181193</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181194</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9005583181193</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638817</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.956765431391</v>
+        <v>874.9271131227914</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>835.4163915387942</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018335</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5838,19 +5838,19 @@
         <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V22" t="n">
-        <v>1029.666285013068</v>
+        <v>786.0822064765181</v>
       </c>
       <c r="W22" t="n">
-        <v>1029.666285013068</v>
+        <v>662.3181469663897</v>
       </c>
       <c r="X22" t="n">
-        <v>1029.666285013068</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.666285013068</v>
+        <v>434.3285960683722</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>675.0071030383428</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>420.3226148324559</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562136</v>
+        <v>130.9054447954951</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775518</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6385,10 +6385,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,13 +6400,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
@@ -6415,16 +6415,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765185</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415408</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905605</v>
+        <v>494.8466681110222</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440243</v>
+        <v>381.671350464486</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>287.315576333521</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>287.315576333521</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.667044318235</v>
+        <v>957.994667138697</v>
       </c>
       <c r="X31" t="n">
-        <v>947.4383587015886</v>
+        <v>785.7659815220504</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.4066448394294</v>
+        <v>620.7342676598911</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>143.7578250841092</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>292.8275092861691</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103128</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7786,31 +7786,31 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>93.88676507992494</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>358.3520020925041</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.04402060665494</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.406710013101247</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>171.2966883299252</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>297.3877236703341</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>39.88923345256674</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>5.10066308935923</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>285.1031356539325</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262929</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>61.34209567542507</v>
+        <v>262.2258133653224</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>63.21913431616051</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>120.0525224452877</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>64.30500338171942</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>213.0220289556707</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8175100330192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>163.9965794215639</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>29.89407122271331</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.35818558718</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338571</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165244</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>13.31060320469215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571488</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.8167491829794</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="10">
@@ -26314,7 +26314,7 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
@@ -26323,37 +26323,37 @@
         <v>469234.8716852501</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.87168525</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852501</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>469234.8716852501</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="K2" t="n">
-        <v>488186.5648143235</v>
+        <v>488186.5648143236</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.06191857</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.299871659655681e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007492</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.354170204</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732788</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.5188973279</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732795</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.944075305</v>
+        <v>-328118.9440753049</v>
       </c>
       <c r="C6" t="n">
         <v>261848.9351392396</v>
@@ -26528,40 +26528,40 @@
         <v>261848.9351392395</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963704</v>
+        <v>-155926.6815223425</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.814080526</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.814080526</v>
+        <v>369233.3549545537</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805262</v>
+        <v>369233.3549545538</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805261</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879337</v>
+        <v>192810.135761961</v>
       </c>
       <c r="K6" t="n">
-        <v>321314.3968110511</v>
+        <v>321295.9030731167</v>
       </c>
       <c r="L6" t="n">
         <v>354231.5304003499</v>
       </c>
       <c r="M6" t="n">
-        <v>229773.4219673797</v>
+        <v>229773.4219673795</v>
       </c>
       <c r="N6" t="n">
-        <v>364574.4372012169</v>
+        <v>364574.4372012166</v>
       </c>
       <c r="O6" t="n">
-        <v>364574.4372012169</v>
+        <v>364574.4372012166</v>
       </c>
       <c r="P6" t="n">
-        <v>320411.8318983715</v>
+        <v>320411.8318983712</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.874839574569601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26820,13 +26820,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.874839574569601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108366</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.874839574569601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.6383668238966</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.74592769735769</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.10813404956866</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>294.4892016786919</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>34.31260736577686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>254.0141056048014</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>222.3429013606628</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>281.7280316769088</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.502258088041329e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.782386064220974e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-5.782386064220974e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.782386064220974e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.782386064220974e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.631974555493798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.051215185671695e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>404.3111421303914</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>668.7763791429704</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>110.0570533917291</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>318.8310870635676</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
         <v>803.580930408112</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>504.4912617279381</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36455,10 +36455,10 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187477</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>504.4811386018588</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>127.9022662376409</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>47.01084204426594</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>534.3608406099569</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>462.3874039146948</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349184</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477035</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
